--- a/Result/ARIMA/Service/JPN.xlsx
+++ b/Result/ARIMA/Service/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,16 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="n">
+        <v>69.8870573141604</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -721,72 +731,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>70.12237750957773</v>
+        <v>70.2032079950864</v>
       </c>
       <c r="C2" t="n">
-        <v>68.66960092519581</v>
+        <v>68.7805838542123</v>
       </c>
       <c r="D2" t="n">
-        <v>71.57515409395965</v>
+        <v>71.62583213596051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>70.44922415604557</v>
+        <v>70.5193586760124</v>
       </c>
       <c r="C3" t="n">
-        <v>68.3946878073146</v>
+        <v>68.50746432182886</v>
       </c>
       <c r="D3" t="n">
-        <v>72.50376050477655</v>
+        <v>72.53125303019594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>70.77607080251342</v>
+        <v>70.8355093569384</v>
       </c>
       <c r="C4" t="n">
-        <v>68.25978794631756</v>
+        <v>68.37145206487043</v>
       </c>
       <c r="D4" t="n">
-        <v>73.29235365870927</v>
+        <v>73.29956664900638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>71.10291744898126</v>
+        <v>71.1516600378644</v>
       </c>
       <c r="C5" t="n">
-        <v>68.19736428021741</v>
+        <v>68.30641175611619</v>
       </c>
       <c r="D5" t="n">
-        <v>74.0084706177451</v>
+        <v>73.99690831961261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>71.4297640954491</v>
+        <v>71.4678107187904</v>
       </c>
       <c r="C6" t="n">
-        <v>68.18125689665116</v>
+        <v>68.28672643336367</v>
       </c>
       <c r="D6" t="n">
-        <v>74.67827129424704</v>
+        <v>74.64889500421714</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,6 +1109,16 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="n">
+        <v>71.01676140684715</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1146,13 +1166,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>69.71669424534713</v>
+        <v>71.31620658375344</v>
       </c>
       <c r="C2" t="n">
-        <v>68.36947715179066</v>
+        <v>69.90931712791615</v>
       </c>
       <c r="D2" t="n">
-        <v>71.06391133890359</v>
+        <v>72.72309603959073</v>
       </c>
     </row>
     <row r="3">
@@ -1160,13 +1180,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>69.96798871955008</v>
+        <v>71.61565176065973</v>
       </c>
       <c r="C3" t="n">
-        <v>68.06273603438167</v>
+        <v>69.62600961145493</v>
       </c>
       <c r="D3" t="n">
-        <v>71.87324140471848</v>
+        <v>73.60529390986453</v>
       </c>
     </row>
     <row r="4">
@@ -1174,13 +1194,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>70.21928319375303</v>
+        <v>71.91509693756602</v>
       </c>
       <c r="C4" t="n">
-        <v>67.88583473888797</v>
+        <v>69.47829291942291</v>
       </c>
       <c r="D4" t="n">
-        <v>72.55273164861809</v>
+        <v>74.35190095570913</v>
       </c>
     </row>
     <row r="5">
@@ -1188,13 +1208,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>70.47057766795598</v>
+        <v>72.21454211447231</v>
       </c>
       <c r="C5" t="n">
-        <v>67.77614348084306</v>
+        <v>69.40076320279773</v>
       </c>
       <c r="D5" t="n">
-        <v>73.1650118550689</v>
+        <v>75.02832102614688</v>
       </c>
     </row>
     <row r="6">
@@ -1202,13 +1222,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>70.72187214215893</v>
+        <v>72.5139872913786</v>
       </c>
       <c r="C6" t="n">
-        <v>67.709403140517</v>
+        <v>69.36808683129874</v>
       </c>
       <c r="D6" t="n">
-        <v>73.73434114380086</v>
+        <v>75.65988775145846</v>
       </c>
     </row>
   </sheetData>

--- a/Result/ARIMA/Service/JPN.xlsx
+++ b/Result/ARIMA/Service/JPN.xlsx
@@ -463,7 +463,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>62.93174163037728</v>
+        <v>0.3161506809260008</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>63.21285779605014</v>
+        <v>63.24789231130328</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>63.17784622922347</v>
+        <v>63.52900847697614</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>64.17246838994498</v>
+        <v>63.49399691014947</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>64.90407968426315</v>
+        <v>64.48861907087098</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>65.81276456014629</v>
+        <v>65.22023036518915</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>66.02064145432622</v>
+        <v>66.12891524107229</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>67.06628127810217</v>
+        <v>66.33679213525222</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>68.33286080063881</v>
+        <v>67.38243195902817</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>68.71535813405613</v>
+        <v>68.64901148156481</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>68.98968248826172</v>
+        <v>69.03150881498213</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>69.47396470638607</v>
+        <v>69.30583316918772</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>69.44979372917251</v>
+        <v>69.79011538731207</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>69.56041712522416</v>
+        <v>69.76594441009851</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>70.26145846397984</v>
+        <v>69.87656780615016</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>71.91070646367305</v>
+        <v>70.57760914490584</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>70.54419653330581</v>
+        <v>72.22685714459905</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>71.69112244493857</v>
+        <v>70.86034721423181</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>71.74712328115686</v>
+        <v>72.00727312586457</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>71.62077261163049</v>
+        <v>72.06327396208286</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>70.88402134881488</v>
+        <v>71.93692329255649</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>69.79553086310989</v>
+        <v>71.20017202974088</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8870573141604</v>
+        <v>70.11168154403589</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -845,7 +845,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>62.93174163037728</v>
+        <v>0.2994451769062907</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>63.21285779605014</v>
+        <v>63.23118680728358</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>63.17784622922347</v>
+        <v>63.51230297295643</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -875,7 +875,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>64.17246838994498</v>
+        <v>63.47729140612976</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>64.90407968426315</v>
+        <v>64.47191356685127</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>65.81276456014629</v>
+        <v>65.20352486116944</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>66.02064145432622</v>
+        <v>66.11220973705258</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>67.06628127810217</v>
+        <v>66.32008663123251</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>68.33286080063881</v>
+        <v>67.36572645500846</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>68.71535813405613</v>
+        <v>68.6323059775451</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>68.98968248826172</v>
+        <v>69.01480331096242</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>69.47396470638607</v>
+        <v>69.28912766516801</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>69.44979372917251</v>
+        <v>69.77340988329236</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>69.56041712522416</v>
+        <v>69.7492389060788</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>70.26145846397984</v>
+        <v>69.85986230213045</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>71.91070646367305</v>
+        <v>70.56090364088612</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>70.54419653330581</v>
+        <v>72.21015164057934</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>71.69112244493857</v>
+        <v>70.8436417102121</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>71.74712328115686</v>
+        <v>71.99056762184486</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>71.62077261163049</v>
+        <v>72.04656845806315</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>70.88402134881488</v>
+        <v>71.92021778853677</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>69.79553086310989</v>
+        <v>71.18346652572117</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>69.8870573141604</v>
+        <v>70.09497604001618</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>69.53577556669734</v>
+        <v>70.18650249106669</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>69.43251929106526</v>
+        <v>69.83522074360363</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>69.41674282423787</v>
+        <v>69.73196446797155</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>69.46539977114418</v>
+        <v>69.71618800114416</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>71.01676140684715</v>
+        <v>69.76484494805047</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
